--- a/trunk/results/matlab vs cuda fft timings.xlsx
+++ b/trunk/results/matlab vs cuda fft timings.xlsx
@@ -16,24 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>All measurements are in milliseconds unless otherwise noted</t>
+    <t>fft size</t>
   </si>
   <si>
-    <t>Matlab</t>
+    <t>matlab</t>
   </si>
   <si>
-    <t>N = 16384</t>
+    <t>gpu</t>
   </si>
   <si>
-    <t>CUDA</t>
-  </si>
-  <si>
-    <t>Computer Specs:</t>
-  </si>
-  <si>
-    <t>Intel Core 2 Duo CPU, E7200 @ 2.53 GHz, 3GB of RAM, Nvidia GeForce 9600 GT</t>
+    <t>size 2^x</t>
   </si>
 </sst>
 </file>
@@ -78,6 +72,358 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>N-point FFT Computation Times</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU vs GPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1667000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2339000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>GPU</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.52270000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65480000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0941000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4666999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="71981696"/>
+        <c:axId val="70064384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="71981696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size  (N = 2^X)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70064384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70064384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation Times (msecs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71981696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,72 +711,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C2">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.52270000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.51939999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.51349999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.52159999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>512</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.64590000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>1024</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.65480000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2048</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.69179999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4096</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.7036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>1.034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>8192</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.73839999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>1.1000000000000001</v>
+        <v>16384</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1.4260999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.87639999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>32768</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3.1667000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.0941000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>65536</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>7.2339000000000002</v>
+      </c>
+      <c r="D13">
+        <v>1.4666999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
